--- a/biology/Médecine/Dexlansoprazole/Dexlansoprazole.xlsx
+++ b/biology/Médecine/Dexlansoprazole/Dexlansoprazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le dexlansoprazole est un inhibiteur de la pompe à protons (IPP). Il s'agit de l'énantiomère dextrogyre du lansoprazole[3].
+Le dexlansoprazole est un inhibiteur de la pompe à protons (IPP). Il s'agit de l'énantiomère dextrogyre du lansoprazole.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce médicament n’est pas disponible en France, mais il est commercialisé aux États-Unis[3] depuis 2009, et au Canada depuis 2010[4] et en Suisse sous la marque Dexilant en dosage 30 mg ou 60 mg[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médicament n’est pas disponible en France, mais il est commercialisé aux États-Unis depuis 2009, et au Canada depuis 2010 et en Suisse sous la marque Dexilant en dosage 30 mg ou 60 mg
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dexlansoprazole est approuvé pour le traitement des brûlures d'estomac associées au reflux gastro-œsophagien non érosif, la guérison de toutes les formes d'œsophagite érosive, ainsi que l'entretien de l'œsophagite érosive lors de la guérison[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dexlansoprazole est approuvé pour le traitement des brûlures d'estomac associées au reflux gastro-œsophagien non érosif, la guérison de toutes les formes d'œsophagite érosive, ainsi que l'entretien de l'œsophagite érosive lors de la guérison.
 </t>
         </is>
       </c>
